--- a/biology/Botanique/Nœud_de_bois/Nœud_de_bois.xlsx
+++ b/biology/Botanique/Nœud_de_bois/Nœud_de_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C5%93ud_de_bois</t>
+          <t>Nœud_de_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un nœud de bois ou nœud d'anguille est un nœud d'accroche utilisé par les bucherons et en marine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C5%93ud_de_bois</t>
+          <t>Nœud_de_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Nouage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour qu'il soit sûr, ce nœud doit être exécuté de façon que chacune des torsades forme un angle de 45° avec le tour mort, et il faut en faire au moins cinq[1]. De plus, les tours doivent être réalisés dans le sens du commettage. Le nœud tient tant qu'il est sous tension.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour qu'il soit sûr, ce nœud doit être exécuté de façon que chacune des torsades forme un angle de 45° avec le tour mort, et il faut en faire au moins cinq. De plus, les tours doivent être réalisés dans le sens du commettage. Le nœud tient tant qu'il est sous tension.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C5%93ud_de_bois</t>
+          <t>Nœud_de_bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Particulièrement adapté au remorquage d'un tronc ou d'une charge, tant sur terre que dans l'eau, éventuellement complété de quelques demi-clés, ce nœud a comme avantage d'être simple, de ne pas glisser, et d'être facile à défaire, quelle que soit la traction à laquelle il a été soumis.
 Ce nœud est également utilisé pour accrocher les cordes de guitares classiques, et autrefois pour les cordes des arcs.
